--- a/Assets/Prefabs/Environment/chunks.xlsx
+++ b/Assets/Prefabs/Environment/chunks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hacke\Documents\Develop\Mouse\Assets\Prefabs\Environment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C69DBD-502E-499D-9194-332276CF4B7F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646ED9BB-E2D2-4018-9E5B-2CA0504BE9FB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{F5659F11-8461-42A7-90A9-7316614DDB64}"/>
   </bookViews>
@@ -629,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09180392-0278-4057-8D1B-958973743B5D}">
   <dimension ref="A1:C81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,6 +695,9 @@
       <c r="A8" t="s">
         <v>38</v>
       </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -724,6 +727,9 @@
       <c r="A12" t="s">
         <v>48</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -745,21 +751,33 @@
       <c r="A15" t="s">
         <v>51</v>
       </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>46</v>
       </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>47</v>
       </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>45</v>
       </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -773,6 +791,9 @@
       <c r="A20" t="s">
         <v>32</v>
       </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -786,16 +807,25 @@
       <c r="A22" t="s">
         <v>34</v>
       </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>35</v>
       </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>33</v>
       </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -809,6 +839,9 @@
       <c r="A26" t="s">
         <v>29</v>
       </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -822,16 +855,25 @@
       <c r="A28" t="s">
         <v>67</v>
       </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>68</v>
       </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>66</v>
       </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -861,36 +903,57 @@
       <c r="A34" t="s">
         <v>64</v>
       </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>65</v>
       </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>63</v>
       </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>76</v>
       </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>77</v>
       </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>75</v>
       </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>79</v>
       </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -912,11 +975,17 @@
       <c r="A43" t="s">
         <v>73</v>
       </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>74</v>
       </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -930,36 +999,57 @@
       <c r="A46" t="s">
         <v>58</v>
       </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>59</v>
       </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>57</v>
       </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>61</v>
       </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>62</v>
       </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>60</v>
       </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>55</v>
       </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
@@ -981,11 +1071,17 @@
       <c r="A55" t="s">
         <v>13</v>
       </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>14</v>
       </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
@@ -999,16 +1095,25 @@
       <c r="A58" t="s">
         <v>16</v>
       </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>17</v>
       </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>15</v>
       </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
@@ -1041,21 +1146,33 @@
       <c r="A64" t="s">
         <v>22</v>
       </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>23</v>
       </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>21</v>
       </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>25</v>
       </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
@@ -1077,6 +1194,9 @@
       <c r="A70" t="s">
         <v>19</v>
       </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
@@ -1106,6 +1226,9 @@
       <c r="A74" t="s">
         <v>5</v>
       </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
@@ -1118,6 +1241,9 @@
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>7</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
